--- a/4 вариант 15.10.25/1 Задание.xlsx
+++ b/4 вариант 15.10.25/1 Задание.xlsx
@@ -5,42 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\29440297\Desktop\Вариант 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\29440297\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="1 Задание" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>x</t>
   </si>
@@ -67,7 +46,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -80,16 +59,43 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,13 +103,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -325,270 +355,271 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <f t="shared" ref="D2:D9" si="0">IF(OR(A2=1,B2=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <f t="shared" ref="E2:E9" si="1">IF(AND(D2=1,C2=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <f t="shared" ref="F2:F9" si="2">IF(OR(E2=1,B2=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <f t="shared" ref="G2:G9" si="3">IF(AND(F2=1,C2=1),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
+      <c r="A4" s="3">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
+      <c r="A5" s="3">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>